--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2137052.61601137</v>
+        <v>2134800.536300162</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738198</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.79406931039818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>107.0958674813241</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.259894528902</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157442</v>
       </c>
       <c r="T5" t="n">
-        <v>72.33270390034102</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66.23125412673231</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>107.40560674837</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177667</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8645835501905</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.04917322725468</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890385</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>180.2628815644441</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>117.6449484365336</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2221689967083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.3764982651472</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>130.4114987159128</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>133.605923711194</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>122.4770547252865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.02686156550217</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>211.8986685707652</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1329.547110979146</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686071</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080127</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>844.171363847817</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2351809199101</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,19 +4492,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640133</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>1474.601958719604</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.612407821587</v>
+        <v>652.2346852641114</v>
       </c>
       <c r="Y4" t="n">
-        <v>1025.819828678057</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3142.251815863195</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3142.251815863195</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2811.188928519624</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2811.188928519624</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.723170258544</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>431.4421061205812</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1405.351536617805</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.667048411918</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.667048411918</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X7" t="n">
-        <v>922.6774975139006</v>
+        <v>652.2346852641114</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>431.4421061205812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.088959374998</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.404471169111</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.987301132151</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>775.9977502341333</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.9977502341333</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,13 +5051,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,52 +5273,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,55 +5501,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.7594328861248</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192548</v>
@@ -5753,25 +5753,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2313.467666357059</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>733.4550657171301</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>583.3384263047943</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5348780504994</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,61 +6203,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>943.510265746755</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622243</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343174</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970972</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934011</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035994</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892464</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>747.3737171343192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>599.4606235519261</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>452.5706760540157</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,22 +7491,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.7828069546826</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>28.78901421003562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.60981118522903</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.23897475306511</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.0095493070184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>31.91821458107486</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>129.6605885985415</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>40.23897475306282</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516054</v>
@@ -26323,37 +26323,37 @@
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818186</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818183</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="G4" t="n">
-        <v>12996.86414683049</v>
-      </c>
       <c r="H4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26522,46 +26522,46 @@
         <v>-933607.3020555618</v>
       </c>
       <c r="C6" t="n">
-        <v>395137.4436720301</v>
+        <v>395137.4436720304</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720303</v>
+        <v>395137.44367203</v>
       </c>
       <c r="E6" t="n">
-        <v>145649.4289971616</v>
+        <v>145614.6910717259</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045173</v>
+        <v>471027.152879081</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.8908045167</v>
+        <v>471027.152879081</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.8908045167</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.8908045169</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="J6" t="n">
-        <v>253530.6884072395</v>
+        <v>253495.9504818036</v>
       </c>
       <c r="K6" t="n">
-        <v>471061.8908045166</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="L6" t="n">
-        <v>471061.8908045167</v>
+        <v>471027.152879081</v>
       </c>
       <c r="M6" t="n">
-        <v>386006.8628690052</v>
+        <v>385972.1249435692</v>
       </c>
       <c r="N6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790813</v>
       </c>
       <c r="O6" t="n">
-        <v>471061.890804517</v>
+        <v>471027.152879081</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790809</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,17 +26960,17 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468632</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.4438693456554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>179.4271308552669</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.32475882319281</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660146</v>
       </c>
       <c r="T5" t="n">
-        <v>131.5852662392791</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>101.0155669718955</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>178.8062314572429</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029162</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.3472546554224</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>147.4873481937413</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817553</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.64972152707458</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060436</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>311.9917356041954</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367747</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>393.2623022991504</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
